--- a/data/hotels_by_city/Dallas/Dallas_shard_344.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_344.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>smith2989</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>TTHamilton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r585657532-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>lhs5271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r585003654-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>daminique23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r584744304-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -226,6 +238,9 @@
   </si>
   <si>
     <t>Jasmine was really helpful during our stay. She welcomed my husband and I with a great big smile and answered all the question that we had. She even helped me with my bill when I called 3 days later after departing. The hotel was nice and we will visit again in the near future.</t>
+  </si>
+  <si>
+    <t>CharlieGirl24</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r582445485-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
@@ -748,43 +763,47 @@
       <c r="A2" t="n">
         <v>32427</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155030</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -798,50 +817,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32427</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155031</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -855,50 +878,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32427</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155032</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -912,50 +939,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32427</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -969,50 +1000,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32427</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155034</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1032,7 +1067,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_344.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_344.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,141 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>smith2989</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r607138050-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>109533</t>
+  </si>
+  <si>
+    <t>607138050</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service!</t>
+  </si>
+  <si>
+    <t>I had a reservation booked at the Sheraton Arlington hotel, my preferred hotel, for the week of 8/12/18.  I was due to check-out on 8/17, but they were completely booked on 8/16.  As a result, the reservationist suggested that I reserve a room nearby at the Four Points Sheraton the night of 8/16.  She also suggested that I check-in at the front desk at the Sheraton Arlington each day to see if there was a cancellation, which I did.  Fortunately, there was a cancellation and I was able to stay at my preferred hotel the night of 8/16 and not go through the hassle of having to change hotels.  I contacted the Four Points Sheraton and spoke to a front desk representative and explained my dilemma.  She explained that since the cancellation deadline past, that I would be charged. I informed her that I am a SPG and a Marriott Rewards member and I requested an exception due to my circumstances.  She put me on hold and spoke to Rich Todd, a General Manager, who declined to assist me.  I then contacted the SPG Customer Service, whom also called the Four Points Sheraton and spoke to Mr. Todd, and he continued to refuse to honor my request.  So, as a result, I would not recommend this hotel to anyone due to Mr. Todd's poor customer service, and lack of empathy and compassion.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I had a reservation booked at the Sheraton Arlington hotel, my preferred hotel, for the week of 8/12/18.  I was due to check-out on 8/17, but they were completely booked on 8/16.  As a result, the reservationist suggested that I reserve a room nearby at the Four Points Sheraton the night of 8/16.  She also suggested that I check-in at the front desk at the Sheraton Arlington each day to see if there was a cancellation, which I did.  Fortunately, there was a cancellation and I was able to stay at my preferred hotel the night of 8/16 and not go through the hassle of having to change hotels.  I contacted the Four Points Sheraton and spoke to a front desk representative and explained my dilemma.  She explained that since the cancellation deadline past, that I would be charged. I informed her that I am a SPG and a Marriott Rewards member and I requested an exception due to my circumstances.  She put me on hold and spoke to Rich Todd, a General Manager, who declined to assist me.  I then contacted the SPG Customer Service, whom also called the Four Points Sheraton and spoke to Mr. Todd, and he continued to refuse to honor my request.  So, as a result, I would not recommend this hotel to anyone due to Mr. Todd's poor customer service, and lack of empathy and compassion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r593283941-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>593283941</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Decent hotel value in Arlington</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights in June.  Hotel renovation is nicely done.  Jorge was very efficient and professional upon check in.  The SPG gold upgrade was very appreciated.  The room is well laid out and comfortable. The pool area is basic but well maintained.  Overal we were pleased with our stay.  The only issue we had was with housekeeping. We returned late one night and had only 1 towel, no creamers etc...  the clerk at the front desk was very helpful in rectifying issues.  We also wish room had been cleaner.  I addressed these issues in an email to hotel manager who stated he would look into them. I feel confident issues will be addressed and will probably stay here again when the opportunity presents.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights in June.  Hotel renovation is nicely done.  Jorge was very efficient and professional upon check in.  The SPG gold upgrade was very appreciated.  The room is well laid out and comfortable. The pool area is basic but well maintained.  Overal we were pleased with our stay.  The only issue we had was with housekeeping. We returned late one night and had only 1 towel, no creamers etc...  the clerk at the front desk was very helpful in rectifying issues.  We also wish room had been cleaner.  I addressed these issues in an email to hotel manager who stated he would look into them. I feel confident issues will be addressed and will probably stay here again when the opportunity presents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r591622559-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>591622559</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Not bad, but not the best.</t>
+  </si>
+  <si>
+    <t>The hotel is a nice looking place and in a good location. The beds are not comfortable, pillows are flat and ridiculous. The ac works, but keeps going off and you have to keep resetting it. It was a hot and sleepless night, not to mention the noise in the hall. Staff was very friendly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r591241446-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>591241446</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>One night stay, newly renovated hotel near Six Flags</t>
+  </si>
+  <si>
+    <t>Stayed here when it was a Holiday inn Express. Newly renovated property with lots of wood floors, etc. when moved to Four Points. Never stayed at Four Points by Sheraton so have nothing for comparison. The room was large (I think it was upgraded as I am SPG Gold) with rather unique furniture. The room was about half empty so they could add a couch or something. If they have roll away beds there was plenty of room available.I was only there for one night, checked in at 8pm and out at 8am the next morning. Restaurant/bar is definitely only for hotel guests as small and pricey for locals people. Check in was quick and easy as was check out. Hotel seemed a bit slow considering it is prime vacation season near an amusement park.Only downside would be the wood floor was a bit dirty as evidenced by dirt on your feet when walking barefooted. Easy enough to fix if they care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here when it was a Holiday inn Express. Newly renovated property with lots of wood floors, etc. when moved to Four Points. Never stayed at Four Points by Sheraton so have nothing for comparison. The room was large (I think it was upgraded as I am SPG Gold) with rather unique furniture. The room was about half empty so they could add a couch or something. If they have roll away beds there was plenty of room available.I was only there for one night, checked in at 8pm and out at 8am the next morning. Restaurant/bar is definitely only for hotel guests as small and pricey for locals people. Check in was quick and easy as was check out. Hotel seemed a bit slow considering it is prime vacation season near an amusement park.Only downside would be the wood floor was a bit dirty as evidenced by dirt on your feet when walking barefooted. Easy enough to fix if they care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r589266310-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>589266310</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Very modern</t>
+  </si>
+  <si>
+    <t>We were very happy with every aspect of the Four Points Hotel. The complex was very well maintained and clean. Everywhere it had a nice smell and was clean. The room was very clean and comfortable. The bed was very comfortable and the linen smelled clean. We can recommend this hotel and would stay there again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r586929516-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>586929516</t>
   </si>
   <si>
     <t>06/12/2018</t>
   </si>
   <si>
+    <t>It isn't the one by Rangers Stadium</t>
+  </si>
+  <si>
+    <t>Be aware-I booked the wrong Sheraton and that was the beginning of a long two days.   It is further away and you must take the Trolley.  We walked the first night and it was rough.   The Trolley is free to those who stay there.    There is no breakfast or complimentary anything.   The room was dirty when we got there with stuff on the floor.  Those were the good things about the room.  No covered parking and a HUGE hail storm that totally trashed our car and everyone else's.  The management didn't even check on the customers.   I know they can't control the weather, but a "hey, are you okay?" would have been nice.   The people seemed less than concerned about the customers and I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Four Points by Sheraton Dallas Arlington Entertainment District, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Be aware-I booked the wrong Sheraton and that was the beginning of a long two days.   It is further away and you must take the Trolley.  We walked the first night and it was rough.   The Trolley is free to those who stay there.    There is no breakfast or complimentary anything.   The room was dirty when we got there with stuff on the floor.  Those were the good things about the room.  No covered parking and a HUGE hail storm that totally trashed our car and everyone else's.  The management didn't even check on the customers.   I know they can't control the weather, but a "hey, are you okay?" would have been nice.   The people seemed less than concerned about the customers and I will never stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r585899905-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>109533</t>
-  </si>
-  <si>
     <t>585899905</t>
   </si>
   <si>
@@ -174,15 +294,6 @@
     <t>Just checked in with Jasmine &amp; Paula. These two ladies were truly amazing and funny. By far my best check-in experience thus far. I had to give a review before I go to sleep and forget. The hotel is nice with a nice fresh smell when you walk-in. Shuttle to the Rangers stadium &amp; amusement parks are complimentary so I thought that was a plus. Thank you guys. Keep up the good work.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>TTHamilton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r585657532-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -198,12 +309,6 @@
     <t>The family stayed here for the weekend trip to Six Flags.  The hotel was right around the corner from Six Flags (5 min drive).  The room was very nice, wood laminate flooring, cold a/c after a long day at Six Flags. Check in was very easy. I gave my ID and Jasmine handed my key.  The hotel was very clean, quite, and updated.  The bartender was very knowledgeable of the area and recommend some local restaurants. I would stay here again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>lhs5271</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r585003654-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -222,9 +327,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t>daminique23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r584744304-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -240,9 +342,6 @@
     <t>Jasmine was really helpful during our stay. She welcomed my husband and I with a great big smile and answered all the question that we had. She even helped me with my bill when I called 3 days later after departing. The hotel was nice and we will visit again in the near future.</t>
   </si>
   <si>
-    <t>CharlieGirl24</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r582445485-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,7 +357,19 @@
     <t>We stayed here because of the close proximity to Six Flags. We were very surprised upon walking in how new and modern it was! The room was spacious and clean. Wood laminate floors so it's not the normal grungy carpet. Tall ceilings throughout the entire hotel. We had breakfast at the new restaurant and it was great. We got a lot of food and were stuffed. You are within a mile radius of Six Flags and the ball park. AT&amp;T stadium isn't much further.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d109533-r582407320-Four_Points_by_Sheraton_Dallas_Arlington_Entertainment_District-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>582407320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was impressed! </t>
+  </si>
+  <si>
+    <t>We came to see the baseball game in Globe life park. I booked this place on Orbitz while sitting in their parking lot, with extra last minute discount - I am glad I did. Lobby clean and welcoming. Room was clean, with high ceilings. Tall folks would always appreciate it. Two queen beds, window facing green tree outside. Clean white bathroom with fluffy towels. All other comfort amenities - kuric coffee machine, fridge, microwave, hair dryer, iron and huge tv. We truly enjoyed our night in this hotel before flying out early in the morning. In game days there is a trolley that will take you to ballpark and bring you back. Ask the counter for schedule and trolly pass. We took trolley into park, we walked back 15-20 min to hotel. See picture for more info. MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to see the baseball game in Globe life park. I booked this place on Orbitz while sitting in their parking lot, with extra last minute discount - I am glad I did. Lobby clean and welcoming. Room was clean, with high ceilings. Tall folks would always appreciate it. Two queen beds, window facing green tree outside. Clean white bathroom with fluffy towels. All other comfort amenities - kuric coffee machine, fridge, microwave, hair dryer, iron and huge tv. We truly enjoyed our night in this hotel before flying out early in the morning. In game days there is a trolley that will take you to ballpark and bring you back. Ask the counter for schedule and trolly pass. We took trolley into park, we walked back 15-20 min to hotel. See picture for more info. More</t>
   </si>
 </sst>
 </file>
@@ -763,105 +874,101 @@
       <c r="A2" t="n">
         <v>32427</v>
       </c>
-      <c r="B2" t="n">
-        <v>155030</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32427</v>
       </c>
-      <c r="B3" t="n">
-        <v>155031</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
@@ -878,33 +985,29 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32427</v>
       </c>
-      <c r="B4" t="n">
-        <v>155032</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
@@ -919,13 +1022,13 @@
         <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -946,54 +1049,56 @@
       <c r="A5" t="n">
         <v>32427</v>
       </c>
-      <c r="B5" t="n">
-        <v>155033</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1007,59 +1112,55 @@
       <c r="A6" t="n">
         <v>32427</v>
       </c>
-      <c r="B6" t="n">
-        <v>155034</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="O6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1067,7 +1168,422 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32427</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
